--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:45:40+00:00</t>
+    <t>2024-06-05T16:09:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T16:09:02+00:00</t>
+    <t>2024-06-06T08:13:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T08:13:16+00:00</t>
+    <t>2024-06-06T12:20:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T12:20:34+00:00</t>
+    <t>2024-06-06T13:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:15:28+00:00</t>
+    <t>2024-06-06T13:38:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:38:29+00:00</t>
+    <t>2024-06-06T13:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:50:16+00:00</t>
+    <t>2024-06-06T15:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T15:04:41+00:00</t>
+    <t>2024-06-10T15:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:12:05+00:00</t>
+    <t>2024-06-11T07:35:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T07:35:27+00:00</t>
+    <t>2024-06-12T14:11:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12T14:11:34+00:00</t>
+    <t>2024-06-12T15:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12T15:35:22+00:00</t>
+    <t>2024-06-13T07:18:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T07:18:59+00:00</t>
+    <t>2024-06-14T14:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T14:49:07+00:00</t>
+    <t>2024-06-17T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T12:56:05+00:00</t>
+    <t>2024-06-17T13:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:30:51+00:00</t>
+    <t>2024-06-17T14:24:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:24:56+00:00</t>
+    <t>2024-06-17T17:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T17:07:43+00:00</t>
+    <t>2024-06-18T08:49:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T08:49:52+00:00</t>
+    <t>2024-06-18T09:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T09:05:56+00:00</t>
+    <t>2024-06-18T15:03:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T15:03:51+00:00</t>
+    <t>2024-06-19T08:58:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T08:58:37+00:00</t>
+    <t>2024-06-19T13:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:37:34+00:00</t>
+    <t>2024-06-20T07:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T07:27:39+00:00</t>
+    <t>2024-06-20T12:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T12:10:02+00:00</t>
+    <t>2024-06-20T15:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:16:37+00:00</t>
+    <t>2024-06-20T15:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:30:31+00:00</t>
+    <t>2024-06-20T15:44:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:44:13+00:00</t>
+    <t>2024-06-20T16:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T16:03:01+00:00</t>
+    <t>2024-06-21T08:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:14:05+00:00</t>
+    <t>2024-06-21T08:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:48:47+00:00</t>
+    <t>2024-06-26T17:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T17:15:09+00:00</t>
+    <t>2024-06-27T11:51:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T11:51:58+00:00</t>
+    <t>2024-06-27T12:50:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$80</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -36,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>FrOrganizationAgregateurSOS</t>
+    <t>FrOrganizationAgregateurCPTS</t>
   </si>
   <si>
     <t>Title</t>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:56:11+00:00</t>
+    <t>2024-07-01T09:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil d'Organization, dérivé de FrOrganization, pour le service d’agrégation de créneaux de la plateforme SAS (Service d’accès aux soins), dans le cadre du cas d’usage SOS Médecins</t>
+    <t>Profil dérivé de FrOrganization pour le cas d'usage agrégateur CPTS</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -509,7 +512,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-SIRET-invariant:Le numéro SIRET doit être préfixé par 3 suivi de 14 caractères numériques {value.matches('^3[0-9]{14}$')}</t>
+FINESS-invariant:Le numéro FINESS doit être préfixé par 1 suivi de 9 caractères numériques {value.matches('^1[0-9]{9}$')}</t>
   </si>
   <si>
     <t>Organization.identifier.id</t>
@@ -1449,6 +1452,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1779,7 +1797,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -1879,7 +1897,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>79</v>
       </c>
@@ -1981,7 +1999,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>87</v>
       </c>
@@ -2081,7 +2099,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>94</v>
       </c>
@@ -2183,7 +2201,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>100</v>
       </c>
@@ -2285,7 +2303,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>109</v>
       </c>
@@ -2387,7 +2405,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>116</v>
       </c>
@@ -2489,7 +2507,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>123</v>
       </c>
@@ -2591,7 +2609,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>134</v>
       </c>
@@ -2695,7 +2713,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>139</v>
       </c>
@@ -2799,7 +2817,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>142</v>
       </c>
@@ -2903,7 +2921,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>146</v>
       </c>
@@ -3007,7 +3025,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>151</v>
       </c>
@@ -3109,7 +3127,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>158</v>
       </c>
@@ -3209,7 +3227,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>163</v>
       </c>
@@ -3311,7 +3329,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>166</v>
       </c>
@@ -3415,7 +3433,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>175</v>
       </c>
@@ -3519,7 +3537,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>186</v>
       </c>
@@ -3623,7 +3641,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>194</v>
       </c>
@@ -3725,7 +3743,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>200</v>
       </c>
@@ -3827,7 +3845,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>207</v>
       </c>
@@ -3929,7 +3947,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>214</v>
       </c>
@@ -4035,7 +4053,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>221</v>
       </c>
@@ -4137,7 +4155,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>230</v>
       </c>
@@ -4243,7 +4261,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>233</v>
       </c>
@@ -4343,7 +4361,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>235</v>
       </c>
@@ -4445,7 +4463,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>237</v>
       </c>
@@ -4549,7 +4567,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>245</v>
       </c>
@@ -4649,7 +4667,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>247</v>
       </c>
@@ -4751,7 +4769,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>249</v>
       </c>
@@ -4855,7 +4873,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>257</v>
       </c>
@@ -4957,7 +4975,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>263</v>
       </c>
@@ -5061,7 +5079,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>270</v>
       </c>
@@ -5165,7 +5183,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>276</v>
       </c>
@@ -5269,7 +5287,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>283</v>
       </c>
@@ -5373,7 +5391,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>290</v>
       </c>
@@ -5479,7 +5497,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>294</v>
       </c>
@@ -5579,7 +5597,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>295</v>
       </c>
@@ -5681,7 +5699,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>296</v>
       </c>
@@ -5785,7 +5803,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>297</v>
       </c>
@@ -5885,7 +5903,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>298</v>
       </c>
@@ -5987,7 +6005,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>299</v>
       </c>
@@ -6091,7 +6109,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>302</v>
       </c>
@@ -6193,7 +6211,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>303</v>
       </c>
@@ -6297,7 +6315,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>304</v>
       </c>
@@ -6401,7 +6419,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>305</v>
       </c>
@@ -6505,7 +6523,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>306</v>
       </c>
@@ -6609,7 +6627,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>307</v>
       </c>
@@ -6715,7 +6733,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>311</v>
       </c>
@@ -6815,7 +6833,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>312</v>
       </c>
@@ -6917,7 +6935,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>313</v>
       </c>
@@ -7021,7 +7039,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>314</v>
       </c>
@@ -7121,7 +7139,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>315</v>
       </c>
@@ -7223,7 +7241,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>316</v>
       </c>
@@ -7327,7 +7345,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>319</v>
       </c>
@@ -7429,7 +7447,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>320</v>
       </c>
@@ -7533,7 +7551,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>321</v>
       </c>
@@ -7637,7 +7655,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>322</v>
       </c>
@@ -7741,7 +7759,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>323</v>
       </c>
@@ -7845,7 +7863,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>324</v>
       </c>
@@ -7864,7 +7882,7 @@
         <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>72</v>
@@ -7949,7 +7967,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>329</v>
       </c>
@@ -8053,7 +8071,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>334</v>
       </c>
@@ -8072,7 +8090,7 @@
         <v>74</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>72</v>
@@ -8157,7 +8175,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>342</v>
       </c>
@@ -8261,7 +8279,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>350</v>
       </c>
@@ -8365,7 +8383,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>356</v>
       </c>
@@ -8465,7 +8483,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>357</v>
       </c>
@@ -8567,7 +8585,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>358</v>
       </c>
@@ -8669,7 +8687,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>364</v>
       </c>
@@ -8771,7 +8789,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>370</v>
       </c>
@@ -8873,7 +8891,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>375</v>
       </c>
@@ -8975,7 +8993,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
         <v>380</v>
       </c>
@@ -9079,7 +9097,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
         <v>386</v>
       </c>
@@ -9179,7 +9197,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
         <v>387</v>
       </c>
@@ -9281,7 +9299,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>388</v>
       </c>
@@ -9385,7 +9403,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
         <v>393</v>
       </c>
@@ -9489,7 +9507,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
         <v>400</v>
       </c>
@@ -9593,7 +9611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
         <v>406</v>
       </c>
@@ -9695,7 +9713,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
         <v>409</v>
       </c>
@@ -9799,7 +9817,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
         <v>411</v>
       </c>
@@ -9904,6 +9922,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ80">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI79">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:27:46+00:00</t>
+    <t>2024-07-01T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
